--- a/_DOC/Entregas 2018/PLANILLA ENTREGA ENERO 2018.xlsx
+++ b/_DOC/Entregas 2018/PLANILLA ENTREGA ENERO 2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecnico\Desktop\materiales 2020\materiales2018\entregas2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srouco\Documents\GitHub\remida\_DOC\Entregas 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="plastico" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +150,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -212,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,6 +285,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,11 +616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="13" customWidth="1"/>
@@ -634,48 +671,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>43114</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24">
         <v>50</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24">
         <f>E4+F4+G4</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:8" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>43126</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32">
         <v>60</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32">
         <f t="shared" ref="H5:H23" si="0">E5+F5+G5</f>
         <v>60</v>
       </c>
@@ -744,9 +781,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>43126</v>
-      </c>
+      <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
@@ -982,11 +1017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -1037,25 +1072,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>43114</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29">
         <f>E4+F4+G4</f>
         <v>15</v>
       </c>
@@ -1341,10 +1376,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -1395,25 +1430,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>43114</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29">
         <f>E4+F4+G4</f>
         <v>15</v>
       </c>
@@ -1702,7 +1737,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -2070,7 +2105,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -2414,11 +2449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -2469,25 +2504,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>43114</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="29">
         <v>40</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29">
         <f>E4+F4+G4</f>
         <v>40</v>
       </c>
@@ -2772,9 +2807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="13" bestFit="1" customWidth="1"/>
